--- a/01-12-25 to 01-18-25 Madison Schedule.xlsx
+++ b/01-12-25 to 01-18-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y48"/>
+  <dimension ref="A1:Y47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1338,11 +1338,7 @@
           <t>6)</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
@@ -1357,7 +1353,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Driver, 1/2
+          <t>Driver,
 Corolla</t>
         </is>
       </c>
@@ -1369,15 +1365,10 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
@@ -1437,7 +1428,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
@@ -1508,10 +1499,15 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
@@ -1575,15 +1571,10 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Corolla</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
@@ -1592,15 +1583,10 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
@@ -1609,15 +1595,10 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
     </row>
@@ -1654,7 +1635,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
@@ -1666,7 +1647,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
@@ -1678,10 +1659,15 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
     </row>
@@ -1718,10 +1704,16 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van,
+Rx</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
@@ -1730,7 +1722,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -1742,15 +1734,10 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
     </row>
@@ -1790,16 +1777,10 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van,
-Rx</t>
-        </is>
-      </c>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
@@ -1808,10 +1789,15 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Makeda</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Driver,
+Gray Van</t>
+        </is>
+      </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
@@ -1820,7 +1806,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -1863,7 +1849,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -1875,13 +1861,14 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Gray Van</t>
+Silver Van,
+Supv Rx</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
@@ -1892,10 +1879,14 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Lorena</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>5:00 at Hwy N, Driver 1/2</t>
+        </is>
+      </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
     </row>
@@ -1935,10 +1926,14 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Lorena</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>5:15 at Hwy N, Driver 1/2</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
@@ -1947,14 +1942,12 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Silver Van,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
@@ -1965,12 +1958,13 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>5:00 at Hwy N, Driver 1/2</t>
+          <t>Driver,
+Gray Van</t>
         </is>
       </c>
       <c r="X27" t="inlineStr"/>
@@ -2000,14 +1994,10 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>5:15 at Hwy N, Driver 1/2</t>
-        </is>
-      </c>
+          <t>Makeda</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2016,7 +2006,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2032,13 +2022,12 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Gray Van</t>
+          <t>Supv Rx</t>
         </is>
       </c>
       <c r="X28" t="inlineStr"/>
@@ -2068,10 +2057,15 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Makeda</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2080,7 +2074,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -2096,12 +2090,12 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>Supv Rx</t>
+          <t>Driver 1/2</t>
         </is>
       </c>
       <c r="X29" t="inlineStr"/>
@@ -2127,13 +2121,14 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Gray Van</t>
+          <t>Driver, 
+Optima,
+Supv Rx</t>
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
@@ -2144,7 +2139,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -2160,14 +2155,10 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>Driver 1/2</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
     </row>
@@ -2203,14 +2194,12 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Driver, 
-Optima,
-Supv Rx</t>
+          <t>Driver 1/2</t>
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
@@ -2221,7 +2210,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -2237,10 +2226,14 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr"/>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
     </row>
@@ -2276,30 +2269,14 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>Driver 1/2</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
@@ -2308,7 +2285,7 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
@@ -2332,16 +2309,8 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
@@ -2355,7 +2324,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
@@ -2384,7 +2353,11 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
@@ -2394,7 +2367,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
@@ -2423,13 +2396,17 @@
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2441,7 +2418,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
@@ -2472,7 +2449,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2480,26 +2457,14 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>KELLEY #54, LAKE GENEVA MOBIL</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>21)</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>Marcia</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
     </row>
@@ -2523,7 +2488,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>KELLEY #80, SANDY HOLLOW MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2531,7 +2496,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>KELLEY #54, LAKE GENEVA MOBIL</t>
+          <t>350 N EDWARDS BLVD</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2562,7 +2527,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>KELLEY #80, SANDY HOLLOW MOBIL, ROCKFORD</t>
+          <t>1621 SANDY HOLLOW RD</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2570,7 +2535,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>350 N EDWARDS BLVD</t>
+          <t>https://goo.gl/maps/TTcKoRubQafC34nS9</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2601,7 +2566,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>1621 SANDY HOLLOW RD</t>
+          <t>https://goo.gl/maps/fDZakniRj1n</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2609,7 +2574,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TTcKoRubQafC34nS9</t>
+          <t>*IL Meet is 5:30 am at IL Office</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2640,7 +2605,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/fDZakniRj1n</t>
+          <t>*JEFF IS THE DM</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2648,7 +2613,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:30 am at IL Office</t>
+          <t>4:45 am meet for Sarah &amp; Aivy at Wayside Park, then meet Lori</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2673,19 +2638,11 @@
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>*JEFF IS THE DM</t>
-        </is>
-      </c>
+      <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>4:45 am meet for Sarah &amp; Aivy at Wayside Park, then meet Lori</t>
-        </is>
-      </c>
+      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
@@ -2719,13 +2676,37 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Driver, Equip</t>
+        </is>
+      </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
@@ -2756,33 +2737,29 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>Driver, Equip</t>
+          <t>@ Store w/ Sarah</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
@@ -2804,10 +2781,15 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Driver 1/2,
+Corolla</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2815,29 +2797,30 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>@ Store w/ Sarah</t>
+          <t>Driver,
+Corolla</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
@@ -2859,7 +2842,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2875,30 +2858,29 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>Driver,
-Corolla</t>
+          <t>5:15 at Hwy N</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
@@ -2920,13 +2902,12 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Driver 1/2,
-Corolla</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -2936,31 +2917,31 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr"/>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Until 8:15</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>5:15 at Hwy N</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
@@ -2973,21 +2954,9 @@
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2995,30 +2964,18 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
@@ -3027,41 +2984,6 @@
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr"/>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/01-12-25 to 01-18-25 Madison Schedule.xlsx
+++ b/01-12-25 to 01-18-25 Madison Schedule.xlsx
@@ -1256,7 +1256,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1338,7 +1338,11 @@
           <t>6)</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">

--- a/01-12-25 to 01-18-25 Madison Schedule.xlsx
+++ b/01-12-25 to 01-18-25 Madison Schedule.xlsx
@@ -721,7 +721,7 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>DC5 FINANCIAL</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>

--- a/01-12-25 to 01-18-25 Madison Schedule.xlsx
+++ b/01-12-25 to 01-18-25 Madison Schedule.xlsx
@@ -1753,14 +1753,10 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
@@ -1825,7 +1821,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1902,7 +1898,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1975,9 +1971,21 @@
       <c r="Y27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">

--- a/01-12-25 to 01-18-25 Madison Schedule.xlsx
+++ b/01-12-25 to 01-18-25 Madison Schedule.xlsx
@@ -1964,7 +1964,8 @@
       <c r="W27" t="inlineStr">
         <is>
           <t>Driver,
-Gray Van</t>
+Gray Van,
+Supv Rx</t>
         </is>
       </c>
       <c r="X27" t="inlineStr"/>
@@ -2034,12 +2035,12 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>Supv Rx</t>
+          <t>Driver 1/2</t>
         </is>
       </c>
       <c r="X28" t="inlineStr"/>
@@ -2102,14 +2103,10 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>Driver 1/2</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
     </row>
@@ -2167,10 +2164,14 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr"/>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
     </row>
@@ -2238,7 +2239,7 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
@@ -2297,7 +2298,7 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
@@ -2336,7 +2337,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
@@ -2379,7 +2380,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
@@ -2423,21 +2424,9 @@
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>20)</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>Marcia</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
     </row>

--- a/01-12-25 to 01-18-25 Madison Schedule.xlsx
+++ b/01-12-25 to 01-18-25 Madison Schedule.xlsx
@@ -1599,10 +1599,15 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
     </row>
@@ -1663,15 +1668,10 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
@@ -1806,10 +1806,14 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Lorena</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>5:00 at Hwy N, Driver 1/2</t>
+        </is>
+      </c>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
     </row>
@@ -1879,12 +1883,14 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>5:00 at Hwy N, Driver 1/2</t>
+          <t>Driver,
+Gray Van,
+Supv Rx</t>
         </is>
       </c>
       <c r="X26" t="inlineStr"/>
@@ -1958,14 +1964,12 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>Driver,
-Gray Van,
-Supv Rx</t>
+          <t>Driver 1/2</t>
         </is>
       </c>
       <c r="X27" t="inlineStr"/>
@@ -2035,14 +2039,10 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>Driver 1/2</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
     </row>
@@ -2103,10 +2103,14 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr"/>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
     </row>
@@ -2164,7 +2168,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -2239,7 +2243,7 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
@@ -2298,7 +2302,7 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
@@ -2337,7 +2341,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
@@ -2373,21 +2377,9 @@
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>19)</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>Marcia</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
     </row>
